--- a/doc/04_機能一覧_B4_第1版.xlsx
+++ b/doc/04_機能一覧_B4_第1版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB9619F1-2B4F-4E3A-BA19-2DE993C951A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5141A613-03C3-46DC-8E43-3E0012E4BA74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2840" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -345,12 +345,6 @@
     <t>UM017</t>
   </si>
   <si>
-    <t>UM018</t>
-  </si>
-  <si>
-    <t>UM019</t>
-  </si>
-  <si>
     <t>開始日自動入力</t>
     <rPh sb="0" eb="3">
       <t>カイシビ</t>
@@ -584,6 +578,45 @@
       <t>シヨウ</t>
     </rPh>
     <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインボーナス機能</t>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインするとご褒美</t>
+    <rPh sb="8" eb="10">
+      <t>ホウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一日に一回ログインボーナスとしてスタンプを押すことができ、7個溜まると労いのコメントなどが表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>イチニチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ネギラ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -619,7 +652,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -629,6 +662,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,7 +714,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,6 +744,12 @@
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1044,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I36"/>
+  <dimension ref="B2:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1111,145 +1156,126 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
+    <row r="9" spans="2:9" ht="39" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
         <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="2">
-        <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
+      <c r="D9" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>30</v>
+      <c r="F9" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -1259,19 +1285,19 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
@@ -1281,19 +1307,19 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
@@ -1303,239 +1329,251 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="2:9" ht="39" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" ht="39" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="G26" s="2"/>
       <c r="H26" s="3"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1547,7 +1585,7 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1559,7 +1597,7 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1571,7 +1609,7 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1583,7 +1621,7 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1595,7 +1633,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1607,7 +1645,7 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1619,7 +1657,7 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1631,7 +1669,7 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1643,7 +1681,7 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1652,6 +1690,23 @@
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
       <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="2">
+        <v>29</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="H38" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/doc/04_機能一覧_B4_第1版.xlsx
+++ b/doc/04_機能一覧_B4_第1版.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5141A613-03C3-46DC-8E43-3E0012E4BA74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3455118-7580-4F41-9514-1748F22F0EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="88">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -193,9 +193,6 @@
     <t>UM004</t>
   </si>
   <si>
-    <t>UM005</t>
-  </si>
-  <si>
     <t>UM006</t>
   </si>
   <si>
@@ -252,16 +249,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>目標体重を入力</t>
-    <rPh sb="0" eb="4">
-      <t>モクヒョウタイジュウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>計測体重を入力</t>
     <rPh sb="0" eb="4">
       <t>ケイソクタイジュウ</t>
@@ -272,16 +259,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>目標体重を入力する</t>
-    <rPh sb="0" eb="4">
-      <t>モクヒョウタイジュウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>その日の体重を入力する</t>
     <rPh sb="2" eb="3">
       <t>ヒ</t>
@@ -434,26 +411,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>家のメニューとジムのメニューで分けられる</t>
-    <rPh sb="0" eb="1">
-      <t>イエ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トレーニング部位の選択</t>
-    <rPh sb="6" eb="8">
-      <t>ブイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>その部位を効果的に鍛えられるトレーニングが文章とイラスト、YouTubeのリンクで表示される</t>
     <rPh sb="2" eb="4">
       <t>ブイ</t>
@@ -480,25 +437,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>その日に鍛えた部位と時間を入力する</t>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>キタ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ブイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>確認</t>
     <rPh sb="0" eb="2">
       <t>カクニン</t>
@@ -590,33 +528,224 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログインするとご褒美</t>
-    <rPh sb="8" eb="10">
-      <t>ホウビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一日に一回ログインボーナスとしてスタンプを押すことができ、7個溜まると労いのコメントなどが表示される。</t>
+    <t>家のメニューとジムのメニューで分けられる。自分が鍛えたいと思う箇所と対応する箇所をイラストから選ぶ。</t>
+    <rPh sb="0" eb="1">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレーニング選択</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その日に鍛えた部位を入力する</t>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>育成ゲーム</t>
+    <rPh sb="0" eb="2">
+      <t>イクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UM018</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一日一回ログインすると1ポイント獲得することができ、そのポイントで女の子（仮）を成長させることができる。成長させると女の子の見た目やセリフが変わる。この成長は１週間経つとリセットされる。</t>
     <rPh sb="0" eb="2">
       <t>イチニチ</t>
     </rPh>
-    <rPh sb="3" eb="5">
+    <rPh sb="2" eb="4">
       <t>イッカイ</t>
     </rPh>
-    <rPh sb="21" eb="22">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
+    <rPh sb="16" eb="18">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
       <t>コ</t>
     </rPh>
-    <rPh sb="31" eb="32">
+    <rPh sb="37" eb="38">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>セイチョウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>セイチョウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>セイチョウ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>シュウカン</t>
+    </rPh>
+    <rPh sb="82" eb="83">
       <t>タ</t>
     </rPh>
-    <rPh sb="35" eb="36">
-      <t>ネギラ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>友達追加機能</t>
+    <rPh sb="0" eb="2">
+      <t>トモダチ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ツイカキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDで友達を追加できる</t>
+  </si>
+  <si>
+    <t>ID検索</t>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>友達追加</t>
+    <rPh sb="0" eb="2">
+      <t>トモダチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UM019</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別のユーザーを登録する確認画面がでる。</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>カクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレンドリスト機能</t>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレンド一覧表示</t>
+    <rPh sb="4" eb="8">
+      <t>イチランヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UM020</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録しているフレンドの一覧を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング機能</t>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング表示</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UM021</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録しているフレンドのランキングを表示する</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -626,7 +755,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,6 +774,14 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -714,7 +851,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,16 +876,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1089,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I38"/>
+  <dimension ref="B2:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="82" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1117,10 +1257,10 @@
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="s">
@@ -1132,24 +1272,24 @@
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="11">
         <v>45086</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
@@ -1185,25 +1325,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="39" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" ht="78" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>73</v>
+      <c r="D9" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="10" t="s">
-        <v>74</v>
+      <c r="F9" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>75</v>
+      <c r="H9" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -1222,10 +1362,10 @@
         <v>19</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -1241,13 +1381,13 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -1263,47 +1403,47 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
@@ -1313,291 +1453,321 @@
         <v>25</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" ht="39" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="2:9" ht="39" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="H25" s="12" t="s">
+        <v>75</v>
+      </c>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
-        <v>18</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="3"/>
+      <c r="F26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
-        <v>19</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="3"/>
+      <c r="F27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
-        <v>20</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="3"/>
+      <c r="F28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1609,7 +1779,7 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1621,7 +1791,7 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1633,7 +1803,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1645,7 +1815,7 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1657,7 +1827,7 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1669,7 +1839,7 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1681,7 +1851,7 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1692,21 +1862,9 @@
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="2">
-        <v>29</v>
-      </c>
-      <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="H38" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
